--- a/wwwroot/ExcelTemplates/Employee Import.xlsx
+++ b/wwwroot/ExcelTemplates/Employee Import.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29010"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9658ABF4-1AA2-4BBE-933B-83BB082C6114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{178AB29D-B87E-4CBF-8B50-91ECF0994516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>StaffId</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>OfficialEmail</t>
+  </si>
+  <si>
+    <t>IsNonProduction</t>
   </si>
 </sst>
 </file>
@@ -617,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BZ2"/>
+  <dimension ref="A1:BT2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AN1" sqref="AN1:BT1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -671,9 +674,10 @@
     <col min="53" max="53" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="73" max="73" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78">
+    <row r="1" spans="1:72">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -791,104 +795,107 @@
       <c r="AM1" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
       <c r="AU1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AV1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AW1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AX1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AY1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AZ1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="BA1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="BB1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="BC1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="BD1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="BE1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="BF1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="BG1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="BH1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="BI1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="BJ1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="BK1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="BL1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="BM1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="BN1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="BO1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="BP1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="BQ1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="BR1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="BS1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="BT1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:78">
+    <row r="2" spans="1:72">
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="P2" s="1"/>
